--- a/Session 06/Submission/BackPropagation.xlsx
+++ b/Session 06/Submission/BackPropagation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Root\Personal\WorkSpace\era-v1\Session 06\Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49322A6-D347-4B20-AD6C-C7D4E6F7A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5756C8-0B23-4E6E-AB2B-5DB63495A47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="411" activeTab="1" xr2:uid="{9439E314-D218-4DC1-801D-FD5CAA68FFFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="411" xr2:uid="{9439E314-D218-4DC1-801D-FD5CAA68FFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -438,6 +438,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -447,6 +456,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -454,24 +472,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1288,7 +1288,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A594-4E9A-8DAF-15BCB08A57E4}"/>
+              <c16:uniqueId val="{00000000-FE91-4203-B683-6EB1419506DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1534,7 +1534,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A594-4E9A-8DAF-15BCB08A57E4}"/>
+              <c16:uniqueId val="{00000001-FE91-4203-B683-6EB1419506DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1780,7 +1780,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A594-4E9A-8DAF-15BCB08A57E4}"/>
+              <c16:uniqueId val="{00000002-FE91-4203-B683-6EB1419506DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2026,7 +2026,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A594-4E9A-8DAF-15BCB08A57E4}"/>
+              <c16:uniqueId val="{00000003-FE91-4203-B683-6EB1419506DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2272,7 +2272,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A594-4E9A-8DAF-15BCB08A57E4}"/>
+              <c16:uniqueId val="{00000004-FE91-4203-B683-6EB1419506DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2518,7 +2518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A594-4E9A-8DAF-15BCB08A57E4}"/>
+              <c16:uniqueId val="{00000005-FE91-4203-B683-6EB1419506DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6200,27 +6200,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38EB70A-2DAB-2CE0-A055-A9D604869141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CC8058-2217-489C-B200-918DAF382216}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6536,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A193E2-7FCF-457A-80F7-5911E68A52AE}">
   <dimension ref="A4:AE100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,101 +6570,101 @@
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="14" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="11" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="11" t="s">
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="11" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="20" t="s">
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="22"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="2">
         <v>3</v>
       </c>
@@ -6673,246 +6675,246 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="11" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="11" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="11" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="11" t="s">
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="13"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J16" s="17">
+      <c r="J16" s="11">
         <v>4</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C17" s="17">
+      <c r="C17" s="11">
         <v>5</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="J17" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="J17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="J18" s="11" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="J18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="J19" s="11" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="J19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="J20" s="20" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="J20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C22" s="17">
+      <c r="C22" s="11">
         <v>6</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
@@ -15307,11 +15309,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C25:O25"/>
-    <mergeCell ref="C26:O26"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="M15:R15"/>
     <mergeCell ref="J17:R17"/>
     <mergeCell ref="J18:R18"/>
     <mergeCell ref="J19:R19"/>
@@ -15320,31 +15339,14 @@
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C26:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="S33" formula="1"/>
   </ignoredErrors>
@@ -15356,8 +15358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEFA52A-E75E-4F01-8CA9-04F39FCAC731}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
